--- a/data/trans_bre/P17_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P17_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.260245941947069</v>
+        <v>5.211135623980426</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.767766185455272</v>
+        <v>2.571343647437155</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.113816684723588</v>
+        <v>1.615769706745344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.417800102568936</v>
+        <v>2.130340719468685</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1838439496555054</v>
+        <v>0.182910479625838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09960671607169512</v>
+        <v>0.09362559787281377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07297936934310137</v>
+        <v>0.10929248308904</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2222036148281408</v>
+        <v>0.1624033748905687</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.01596036000538</v>
+        <v>14.98837294739906</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.65718757774375</v>
+        <v>12.62758029739164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.23298829403676</v>
+        <v>9.156820034723438</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.821104936891038</v>
+        <v>9.932307440897191</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6235255430141992</v>
+        <v>0.6374780405022882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5518751682754901</v>
+        <v>0.5590607038676272</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8112854654442977</v>
+        <v>0.8300255741258107</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.429434505854732</v>
+        <v>1.431765448187138</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.992148151560143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.984397799696577</v>
+        <v>4.984397799696574</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4370747059309595</v>
@@ -749,7 +749,7 @@
         <v>0.4245487038608265</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3252772292547682</v>
+        <v>0.325277229254768</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.407171998688712</v>
+        <v>5.533594448602591</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.359171103899294</v>
+        <v>3.438972730375814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.162411418554621</v>
+        <v>3.408669702953695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.132193399470078</v>
+        <v>1.066616566993817</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2279130144506943</v>
+        <v>0.2292683850750377</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1290631482705208</v>
+        <v>0.1292138997448893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1684915461680277</v>
+        <v>0.1796401459661053</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05396257871485684</v>
+        <v>0.05973363442525304</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.55861141324777</v>
+        <v>13.95766807661051</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.61774628862036</v>
+        <v>11.80962484854825</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.6753564241152</v>
+        <v>10.45768362648766</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.601939928717808</v>
+        <v>8.278682374386124</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6748882343912833</v>
+        <v>0.703590071128868</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4999992029670163</v>
+        <v>0.5184989002531776</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7246215962173004</v>
+        <v>0.6971383194203181</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6366567088323489</v>
+        <v>0.630936609212978</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.957763654733607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.506767408243492</v>
+        <v>8.506767408243487</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2314772432050653</v>
@@ -849,7 +849,7 @@
         <v>0.07767347077531796</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4161082107234782</v>
+        <v>0.4161082107234779</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.652606480565192</v>
+        <v>1.665743472943648</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.906161263209636</v>
+        <v>3.254769063847481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.8551785178051</v>
+        <v>-2.64081127820088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.336249561789876</v>
+        <v>3.863696239624831</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05640044880396439</v>
+        <v>0.05509660193728491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.104166080030883</v>
+        <v>0.117541894204922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1078000186967698</v>
+        <v>-0.09560373661918242</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1840632981797731</v>
+        <v>0.1560923826605783</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.06263784369331</v>
+        <v>11.55827536040245</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.18326000920668</v>
+        <v>12.66162108417684</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.533162044599411</v>
+        <v>6.501752550665371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.88582211635909</v>
+        <v>12.19570701650274</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.449529023293841</v>
+        <v>0.457938577893191</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5813081244275097</v>
+        <v>0.5500640802601896</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2785529711346293</v>
+        <v>0.2823518054955738</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7286810640172954</v>
+        <v>0.6756334442500703</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.309174928603881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.948651423607479</v>
+        <v>2.948651423607476</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.240693195502747</v>
@@ -949,7 +949,7 @@
         <v>0.2375402080655751</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2120924348148877</v>
+        <v>0.2120924348148875</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8791961055078367</v>
+        <v>1.007819680234147</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.634997049523845</v>
+        <v>3.233566203271284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9473336708683802</v>
+        <v>0.8680307432701512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1572903001327211</v>
+        <v>-0.3535582821250725</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03601959524743265</v>
+        <v>0.04426665544083078</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1273060910737676</v>
+        <v>0.1187247348313649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04749607522974485</v>
+        <v>0.04518802873338809</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01094333543087029</v>
+        <v>-0.02210347212179228</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.449666936332338</v>
+        <v>8.618796662840479</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.01919611465721</v>
+        <v>11.7000437295152</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.230403955412282</v>
+        <v>8.073705984245501</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.957128340062709</v>
+        <v>5.993946917611162</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4615095079066766</v>
+        <v>0.4695271625879038</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4922752712426615</v>
+        <v>0.4933062108341711</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5038570946264905</v>
+        <v>0.4937256074799157</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4915098706363219</v>
+        <v>0.4851188547702521</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.817720418121918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.31944342993167</v>
+        <v>5.319443429931664</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3195481045579387</v>
@@ -1049,7 +1049,7 @@
         <v>0.2652833477245357</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3595483620201977</v>
+        <v>0.3595483620201973</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.526723917262938</v>
+        <v>5.381880795927187</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.623586214978195</v>
+        <v>5.484738750019261</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.742931503480389</v>
+        <v>2.963478501657956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.324336696679285</v>
+        <v>3.561000091092486</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2261103850734053</v>
+        <v>0.2195100724494042</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2146797903624088</v>
+        <v>0.2051686661903757</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1458478895300017</v>
+        <v>0.1540698142444764</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2060051170723199</v>
+        <v>0.2245173203713413</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.685094990087006</v>
+        <v>9.556684660702535</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.861605400125848</v>
+        <v>10.09016853354688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.545935835856567</v>
+        <v>6.955172278026993</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.061112207777749</v>
+        <v>7.054609400004964</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4353152470057114</v>
+        <v>0.4277518790582679</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4075365743779569</v>
+        <v>0.4162947193541596</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3853977320088292</v>
+        <v>0.4102707238305646</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5113152391919674</v>
+        <v>0.5281348866529286</v>
       </c>
     </row>
     <row r="19">
